--- a/Practical/time window.xlsx
+++ b/Practical/time window.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BE0476-035B-4946-A4D3-AA05F2071F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="demand" sheetId="2" r:id="rId1"/>
@@ -15,7 +16,20 @@
     <sheet name="Distance" sheetId="4" r:id="rId6"/>
     <sheet name="TravelTime" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -130,7 +144,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -270,6 +284,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -305,6 +336,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -480,23 +528,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="18.28515625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="13.44140625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18.33203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -510,7 +558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -526,8 +574,9 @@
       <c r="E2" s="1">
         <v>2650</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -543,8 +592,9 @@
       <c r="E3" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -560,8 +610,9 @@
       <c r="E4" s="1">
         <v>2636</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -577,8 +628,9 @@
       <c r="E5" s="1">
         <v>2349</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -594,8 +646,9 @@
       <c r="E6" s="1">
         <v>2061</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -611,8 +664,9 @@
       <c r="E7" s="1">
         <v>2080</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -628,6 +682,7 @@
       <c r="E8" s="1">
         <v>5000</v>
       </c>
+      <c r="F8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -635,29 +690,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -668,7 +723,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -679,7 +734,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -690,17 +745,17 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -711,7 +766,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -722,7 +777,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -733,7 +788,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -744,22 +799,22 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -770,20 +825,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>12</v>
@@ -807,7 +862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -833,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -859,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -885,7 +940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,7 +966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -937,7 +992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -963,7 +1018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -995,22 +1050,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.109375" style="1"/>
+    <col min="8" max="8" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1033,7 +1088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1059,7 +1114,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1085,7 +1140,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1111,7 +1166,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1137,7 +1192,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1163,7 +1218,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1189,7 +1244,7 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1221,29 +1276,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1254,22 +1309,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection activeCell="B2" sqref="B2:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.109375" style="1"/>
+    <col min="8" max="8" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1292,7 +1347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1318,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1344,7 +1399,7 @@
         <v>341.66666666666669</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1370,7 +1425,7 @@
         <v>366.66666666666669</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1396,7 +1451,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1422,7 +1477,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1448,7 +1503,7 @@
         <v>408.33333333333331</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1480,22 +1535,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.109375" style="1"/>
+    <col min="8" max="8" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1518,7 +1573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1544,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1570,7 +1625,7 @@
         <v>512.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1596,7 +1651,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1622,7 +1677,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1648,7 +1703,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1674,7 +1729,7 @@
         <v>612.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
